--- a/Docs/Data/Dicionario_Dados_Givanildo.xlsx
+++ b/Docs/Data/Dicionario_Dados_Givanildo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Site_Givanildo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Givanildo\Projeto_Givanildo\Docs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Tabela</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>TAREFA_DATA_FINALIZADA</t>
+  </si>
+  <si>
+    <t>Data da conclusão da tarefa</t>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
   </si>
 </sst>
 </file>
@@ -494,35 +503,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,25 +546,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -883,56 +892,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -940,109 +949,109 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>250</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>250</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="12">
         <v>150</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1057,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1065,205 +1074,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>250</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1283,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1299,56 +1323,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1356,31 +1380,31 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="12">
         <v>250</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
